--- a/Data/homework_cases.xlsx
+++ b/Data/homework_cases.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
+    <sheet name="登录" sheetId="2" r:id="rId2"/>
+    <sheet name="创建项目" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -567,6 +569,232 @@
   </si>
   <si>
     <t>/user/register/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建项目成功</t>
+    <rPh sb="0" eb="1">
+      <t>chuang jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang mu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cheng gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projects/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"这是一个'#name#'的项目"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"leader"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"可优"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"tester"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"某人"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"programmer"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"某人"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"publish_app"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"XXX应用"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"desc"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"xxxx描述"}</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +802,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -607,6 +835,24 @@
       <color rgb="FF008080"/>
       <name val="Menlo"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -625,15 +871,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -910,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1055,5 +1323,96 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="92.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="25" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2">
+        <v>201</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Data/homework_cases.xlsx
+++ b/Data/homework_cases.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
     <sheet name="登录" sheetId="2" r:id="rId2"/>
     <sheet name="创建项目" sheetId="3" r:id="rId3"/>
     <sheet name="创建接口" sheetId="4" r:id="rId4"/>
+    <sheet name="创建用例" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -631,6 +632,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>post</t>
+  </si>
+  <si>
     <r>
       <t>{"name"</t>
     </r>
@@ -825,6 +829,441 @@
   </si>
   <si>
     <t>{"name": "#in_name#", "tester": "KeYou", "project_id": #pro_id#, "desc": "这是一个描述"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extract_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>before</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>before</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/register/</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"username"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"#username#"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"email"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"#email#"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"password"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"#password#"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"password_confirm"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"#password#"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>创建项目提供项目id</t>
+    <rPh sb="0" eb="1">
+      <t>chuang jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang mu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti gong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiang mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建接口提供接口id</t>
+    <rPh sb="0" eb="1">
+      <t>chuang jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie k</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti gong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册提供token</t>
+    <rPh sb="2" eb="3">
+      <t>ti gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"token":"$..token"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: "#pro_name#", </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"leader"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"可优"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"tester"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"某人"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"programmer"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"某人"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"publish_app"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"XXX应用"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"desc"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="STXihei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"xxxx描述"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"pro_id":"$..id"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -832,7 +1271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -883,6 +1322,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="STXihei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="STXihei"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -901,7 +1361,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -913,8 +1373,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -923,19 +1387,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="15">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1213,7 +1690,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1390,7 +1867,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1437,7 +1914,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2">
         <v>201</v>
@@ -1453,10 +1930,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1468,7 +1945,7 @@
     <col min="6" max="6" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1487,8 +1964,11 @@
       <c r="F1" t="s">
         <v>28</v>
       </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1502,7 +1982,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <v>201</v>
@@ -1512,4 +1992,128 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="17.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="80.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="36.5" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="4">
+        <v>201</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="4">
+        <v>201</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="4">
+        <v>201</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>